--- a/ピン配置.xlsx
+++ b/ピン配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\source\repos\a_F3RC_team_B\platformIO_f446re_R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE97D240-C63B-430D-83B3-29EB106CBBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C656F7B-E8C4-4AF2-BA7D-27CC5EF805B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="1005" windowWidth="21630" windowHeight="13290" xr2:uid="{21FD91EE-8B4B-4548-86B9-C7BBC0BB6863}"/>
+    <workbookView xWindow="11895" yWindow="525" windowWidth="21630" windowHeight="13290" xr2:uid="{21FD91EE-8B4B-4548-86B9-C7BBC0BB6863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>モーター</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +107,71 @@
   </si>
   <si>
     <t>A5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DigitalOut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PwmOut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InterruptIn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DigitalIn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*基板に入れない</t>
+    <rPh sb="1" eb="3">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*基板に入れない</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -471,110 +536,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B186C3E6-DB7A-4BA4-AF7A-BC2482EC51D2}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ピン配置.xlsx
+++ b/ピン配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\source\repos\a_F3RC_team_B\platformIO_f446re_R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C656F7B-E8C4-4AF2-BA7D-27CC5EF805B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B948161-3A21-4551-94D7-8190A87AEB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="525" windowWidth="21630" windowHeight="13290" xr2:uid="{21FD91EE-8B4B-4548-86B9-C7BBC0BB6863}"/>
+    <workbookView xWindow="3750" yWindow="5355" windowWidth="14265" windowHeight="13290" xr2:uid="{21FD91EE-8B4B-4548-86B9-C7BBC0BB6863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
-  <si>
-    <t>モーター</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>D8</t>
     <phoneticPr fontId="1"/>
@@ -47,10 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エンコーダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>D4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -64,10 +56,6 @@
   </si>
   <si>
     <t>D12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>センサー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -94,22 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DigitalOut</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,6 +143,64 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左モーター</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右モーター</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左エンコーダー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右エンコーダー</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左センサー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右センサー</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -539,7 +569,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -551,162 +581,189 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ピン配置.xlsx
+++ b/ピン配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\source\repos\a_F3RC_team_B\platformIO_f446re_R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B948161-3A21-4551-94D7-8190A87AEB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE71B1-3F9F-4763-9A9C-2E22D1A9ADA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="5355" windowWidth="14265" windowHeight="13290" xr2:uid="{21FD91EE-8B4B-4548-86B9-C7BBC0BB6863}"/>
+    <workbookView xWindow="7770" yWindow="1965" windowWidth="14265" windowHeight="13290" xr2:uid="{21FD91EE-8B4B-4548-86B9-C7BBC0BB6863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>D8</t>
     <phoneticPr fontId="1"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>D12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アーム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -202,6 +198,54 @@
     <rPh sb="0" eb="1">
       <t>ミギ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーボの電源は5v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチの一端は３Ｖ３に</t>
+    <rPh sb="5" eb="7">
+      <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンコーダーの電源は5v</t>
+  </si>
+  <si>
+    <t>エンコーダーの電源は5v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センサーの電源は5v</t>
+  </si>
+  <si>
+    <t>センサーの電源は5v</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -226,12 +270,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,8 +310,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,204 +637,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B186C3E6-DB7A-4BA4-AF7A-BC2482EC51D2}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
